--- a/generic.xlsx
+++ b/generic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\VisualStudio\ExcelToJSON\ExcelToJSON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CD4223-DF76-403F-90BB-D6BEA161EBBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C6BEA7-A64F-4FD5-9F37-1DB38EEA8085}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -647,7 +647,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
